--- a/projects/CPP_SCORING_FX/Bloomberg Data.xlsx
+++ b/projects/CPP_SCORING_FX/Bloomberg Data.xlsx
@@ -419,7 +419,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,7 +743,7 @@
         <v>-0.1125</v>
       </c>
       <c r="E9" s="4">
-        <v>-0.5</v>
+        <v>-0.50749999999999995</v>
       </c>
       <c r="F9" s="4">
         <v>-0.48</v>
